--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H2">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I2">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J2">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N2">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O2">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P2">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q2">
-        <v>363.0646754952533</v>
+        <v>1116.565786441148</v>
       </c>
       <c r="R2">
-        <v>3267.58207945728</v>
+        <v>10049.09207797033</v>
       </c>
       <c r="S2">
-        <v>0.0001323170598790608</v>
+        <v>0.0003955246669186819</v>
       </c>
       <c r="T2">
-        <v>0.0001365726695251937</v>
+        <v>0.0004018932987814612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H3">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I3">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J3">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.013562</v>
       </c>
       <c r="O3">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P3">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q3">
-        <v>612.3638083998239</v>
+        <v>566.491171127214</v>
       </c>
       <c r="R3">
-        <v>5511.274275598415</v>
+        <v>5098.420540144926</v>
       </c>
       <c r="S3">
-        <v>0.0002231728509342919</v>
+        <v>0.0002006699779747149</v>
       </c>
       <c r="T3">
-        <v>0.0002303505840101251</v>
+        <v>0.0002039011120164654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H4">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I4">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J4">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N4">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O4">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P4">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q4">
-        <v>360751.530902665</v>
+        <v>419068.3680101285</v>
       </c>
       <c r="R4">
-        <v>3246763.778123985</v>
+        <v>3771615.312091156</v>
       </c>
       <c r="S4">
-        <v>0.1314740461896983</v>
+        <v>0.1484479272839498</v>
       </c>
       <c r="T4">
-        <v>0.1357025426488276</v>
+        <v>0.1508381959036778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H5">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I5">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J5">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N5">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O5">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P5">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q5">
-        <v>150.353416053308</v>
+        <v>1751.612146769198</v>
       </c>
       <c r="R5">
-        <v>902.120496319848</v>
+        <v>10509.67288061519</v>
       </c>
       <c r="S5">
-        <v>5.479553175425074E-05</v>
+        <v>0.0006204791686567775</v>
       </c>
       <c r="T5">
-        <v>3.770525159577864E-05</v>
+        <v>0.0004203133049565604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H6">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I6">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J6">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N6">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O6">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P6">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q6">
-        <v>218742.1572482922</v>
+        <v>182621.5080770134</v>
       </c>
       <c r="R6">
-        <v>1968679.41523463</v>
+        <v>1643593.57269312</v>
       </c>
       <c r="S6">
-        <v>0.07971945791535871</v>
+        <v>0.06469060043884417</v>
       </c>
       <c r="T6">
-        <v>0.08228341221119302</v>
+        <v>0.06573223109714607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J7">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N7">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O7">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P7">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q7">
-        <v>459.7638771175822</v>
+        <v>1528.451055429576</v>
       </c>
       <c r="R7">
-        <v>4137.87489405824</v>
+        <v>13756.05949886619</v>
       </c>
       <c r="S7">
-        <v>0.0001675585882207139</v>
+        <v>0.000541428102079998</v>
       </c>
       <c r="T7">
-        <v>0.0001729476434564955</v>
+        <v>0.0005501460318343505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J8">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.013562</v>
       </c>
       <c r="O8">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P8">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q8">
         <v>775.461722824842</v>
@@ -948,10 +948,10 @@
         <v>6979.155505423578</v>
       </c>
       <c r="S8">
-        <v>0.000282613049790562</v>
+        <v>0.0002746942843431368</v>
       </c>
       <c r="T8">
-        <v>0.0002917025112848773</v>
+        <v>0.000279117337867004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J9">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N9">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O9">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P9">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q9">
-        <v>456834.6460521494</v>
+        <v>573656.7403016982</v>
       </c>
       <c r="R9">
-        <v>4111511.814469344</v>
+        <v>5162910.662715284</v>
       </c>
       <c r="S9">
-        <v>0.166491044974443</v>
+        <v>0.2032082604435465</v>
       </c>
       <c r="T9">
-        <v>0.1718457656554767</v>
+        <v>0.2064802652272753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J10">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N10">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O10">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P10">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q10">
-        <v>190.3987751169848</v>
+        <v>2397.75700361186</v>
       </c>
       <c r="R10">
-        <v>1142.392650701909</v>
+        <v>14386.54202167116</v>
       </c>
       <c r="S10">
-        <v>6.938985758856422E-05</v>
+        <v>0.0008493651262844821</v>
       </c>
       <c r="T10">
-        <v>4.774772604281006E-05</v>
+        <v>0.0005753609168158131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J11">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N11">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O11">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P11">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q11">
-        <v>277002.2783636342</v>
+        <v>249987.9900978538</v>
       </c>
       <c r="R11">
-        <v>2493020.505272708</v>
+        <v>2249891.910880684</v>
       </c>
       <c r="S11">
-        <v>0.1009520604087423</v>
+        <v>0.0885540446589136</v>
       </c>
       <c r="T11">
-        <v>0.1041989022178417</v>
+        <v>0.08997991808113605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H12">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I12">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J12">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N12">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O12">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P12">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q12">
-        <v>314.6803408155023</v>
+        <v>1128.463843383639</v>
       </c>
       <c r="R12">
-        <v>2832.12306733952</v>
+        <v>10156.17459045275</v>
       </c>
       <c r="S12">
-        <v>0.0001146836371278771</v>
+        <v>0.0003997393536539416</v>
       </c>
       <c r="T12">
-        <v>0.0001183721168512104</v>
+        <v>0.0004061758492695504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H13">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I13">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J13">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.013562</v>
       </c>
       <c r="O13">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P13">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q13">
-        <v>530.7562672338661</v>
+        <v>572.5276665073681</v>
       </c>
       <c r="R13">
-        <v>4776.806405104794</v>
+        <v>5152.748998566311</v>
       </c>
       <c r="S13">
-        <v>0.0001934314008846294</v>
+        <v>0.0002028083050250194</v>
       </c>
       <c r="T13">
-        <v>0.0001996525830679549</v>
+        <v>0.0002060738698341142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H14">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I14">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J14">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N14">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O14">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P14">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q14">
-        <v>312675.4607545095</v>
+        <v>423533.9349887421</v>
       </c>
       <c r="R14">
-        <v>2814079.146790585</v>
+        <v>3811805.414898678</v>
       </c>
       <c r="S14">
-        <v>0.1139529688668603</v>
+        <v>0.1500297793461097</v>
       </c>
       <c r="T14">
-        <v>0.1176179486809412</v>
+        <v>0.1524455185225131</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H15">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I15">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J15">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N15">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O15">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P15">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q15">
-        <v>130.3163524291928</v>
+        <v>1770.277219008107</v>
       </c>
       <c r="R15">
-        <v>781.898114575157</v>
+        <v>10621.66331404864</v>
       </c>
       <c r="S15">
-        <v>4.749312662839801E-05</v>
+        <v>0.0006270909568469191</v>
       </c>
       <c r="T15">
-        <v>3.268040716577233E-05</v>
+        <v>0.0004247921379073704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H16">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I16">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J16">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N16">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O16">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P16">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q16">
-        <v>189591.1699471042</v>
+        <v>184567.5117325162</v>
       </c>
       <c r="R16">
-        <v>1706320.529523937</v>
+        <v>1661107.605592646</v>
       </c>
       <c r="S16">
-        <v>0.06909553002426462</v>
+        <v>0.06537993953288766</v>
       </c>
       <c r="T16">
-        <v>0.07131779527369415</v>
+        <v>0.06643266974397544</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H17">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I17">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J17">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N17">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O17">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P17">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q17">
-        <v>159.9604277952</v>
+        <v>232.778703212601</v>
       </c>
       <c r="R17">
-        <v>959.7625667712001</v>
+        <v>1396.672219275606</v>
       </c>
       <c r="S17">
-        <v>5.829675793709756E-05</v>
+        <v>8.245794396708354E-05</v>
       </c>
       <c r="T17">
-        <v>4.011447384240326E-05</v>
+        <v>5.585710640980304E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H18">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I18">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J18">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.013562</v>
       </c>
       <c r="O18">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P18">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q18">
-        <v>269.79759632169</v>
+        <v>118.100591830494</v>
       </c>
       <c r="R18">
-        <v>1618.78557793014</v>
+        <v>708.603550982964</v>
       </c>
       <c r="S18">
-        <v>9.832635097046353E-05</v>
+        <v>4.183515007704155E-05</v>
       </c>
       <c r="T18">
-        <v>6.765916276647061E-05</v>
+        <v>2.833917894504156E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H19">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I19">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J19">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N19">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O19">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P19">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q19">
-        <v>158941.2936751487</v>
+        <v>87366.27294818194</v>
       </c>
       <c r="R19">
-        <v>953647.7620508919</v>
+        <v>524197.6376890917</v>
       </c>
       <c r="S19">
-        <v>0.05792533973122644</v>
+        <v>0.03094803407678807</v>
       </c>
       <c r="T19">
-        <v>0.03985889795051428</v>
+        <v>0.02096423400141326</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H20">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I20">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J20">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N20">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O20">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P20">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q20">
-        <v>66.2432849451675</v>
+        <v>365.1715008714044</v>
       </c>
       <c r="R20">
-        <v>264.97313978067</v>
+        <v>1460.686003485618</v>
       </c>
       <c r="S20">
-        <v>2.414202562868171E-05</v>
+        <v>0.0001293558677905722</v>
       </c>
       <c r="T20">
-        <v>1.107488294780003E-05</v>
+        <v>5.841720942249655E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H21">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I21">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J21">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N21">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O21">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P21">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q21">
-        <v>96374.25894588082</v>
+        <v>38072.45246551119</v>
       </c>
       <c r="R21">
-        <v>578245.553675285</v>
+        <v>228434.7147930671</v>
       </c>
       <c r="S21">
-        <v>0.0351231046489097</v>
+        <v>0.01348652651107573</v>
       </c>
       <c r="T21">
-        <v>0.02416849431357637</v>
+        <v>0.00913578862369531</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H22">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I22">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J22">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.757653333333334</v>
+        <v>12.492041</v>
       </c>
       <c r="N22">
-        <v>11.27296</v>
+        <v>37.476123</v>
       </c>
       <c r="O22">
-        <v>0.0006253057195333491</v>
+        <v>0.001845183434243001</v>
       </c>
       <c r="P22">
-        <v>0.0006253596992176284</v>
+        <v>0.001846965528678714</v>
       </c>
       <c r="Q22">
-        <v>418.3065458884267</v>
+        <v>1202.691821666527</v>
       </c>
       <c r="R22">
-        <v>3764.758912995841</v>
+        <v>10824.22639499874</v>
       </c>
       <c r="S22">
-        <v>0.0001524496763685997</v>
+        <v>0.0004260333676232957</v>
       </c>
       <c r="T22">
-        <v>0.0001573527955423255</v>
+        <v>0.0004328932423835486</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H23">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I23">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J23">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.013562</v>
       </c>
       <c r="O23">
-        <v>0.001054673224006999</v>
+        <v>0.0009361563262120847</v>
       </c>
       <c r="P23">
-        <v>0.001054764268956488</v>
+        <v>0.0009370604742490439</v>
       </c>
       <c r="Q23">
-        <v>705.537626786172</v>
+        <v>610.1873322955379</v>
       </c>
       <c r="R23">
-        <v>6349.838641075548</v>
+        <v>5491.685990659841</v>
       </c>
       <c r="S23">
-        <v>0.0002571295714270525</v>
+        <v>0.0002161486087921722</v>
       </c>
       <c r="T23">
-        <v>0.0002653994278270596</v>
+        <v>0.0002196289755864188</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H24">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I24">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J24">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3733.712707666667</v>
+        <v>4688.500488333333</v>
       </c>
       <c r="N24">
-        <v>11201.138123</v>
+        <v>14065.501465</v>
       </c>
       <c r="O24">
-        <v>0.6213217942399283</v>
+        <v>0.6925324238459419</v>
       </c>
       <c r="P24">
-        <v>0.621375430010786</v>
+        <v>0.6932012777691797</v>
       </c>
       <c r="Q24">
-        <v>415641.4462795313</v>
+        <v>451393.1064745958</v>
       </c>
       <c r="R24">
-        <v>3740773.016515782</v>
+        <v>4062537.958271363</v>
       </c>
       <c r="S24">
-        <v>0.1514783944777001</v>
+        <v>0.159898422695548</v>
       </c>
       <c r="T24">
-        <v>0.1563502750750261</v>
+        <v>0.1624730641143003</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H25">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I25">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J25">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.5561305</v>
+        <v>19.5968845</v>
       </c>
       <c r="N25">
-        <v>3.112261</v>
+        <v>39.193769</v>
       </c>
       <c r="O25">
-        <v>0.0002589534519745364</v>
+        <v>0.002894630800697294</v>
       </c>
       <c r="P25">
-        <v>0.0001726505374672451</v>
+        <v>0.001931617640437256</v>
       </c>
       <c r="Q25">
-        <v>173.230342626949</v>
+        <v>1886.722331306271</v>
       </c>
       <c r="R25">
-        <v>1039.382055761694</v>
+        <v>11320.33398783763</v>
       </c>
       <c r="S25">
-        <v>6.313291037464177E-05</v>
+        <v>0.000668339681118543</v>
       </c>
       <c r="T25">
-        <v>4.344226971508402E-05</v>
+        <v>0.0004527340713350154</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H26">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I26">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J26">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2263.941528333333</v>
+        <v>2043.153564333333</v>
       </c>
       <c r="N26">
-        <v>6791.824585</v>
+        <v>6129.460693</v>
       </c>
       <c r="O26">
-        <v>0.3767392733645568</v>
+        <v>0.3017916055929057</v>
       </c>
       <c r="P26">
-        <v>0.3767717954835725</v>
+        <v>0.3020830785874553</v>
       </c>
       <c r="Q26">
-        <v>252024.7284148482</v>
+        <v>196707.9744801121</v>
       </c>
       <c r="R26">
-        <v>2268222.555733634</v>
+        <v>1770371.770321009</v>
       </c>
       <c r="S26">
-        <v>0.09184912036728143</v>
+        <v>0.06968049445118456</v>
       </c>
       <c r="T26">
-        <v>0.09480319146726722</v>
+        <v>0.07080247104150242</v>
       </c>
     </row>
   </sheetData>
